--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -1,13 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shifa\IdeaProjects\qalegend\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68402434-2657-4603-AEB3-AFDAB988A48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="2" r:id="rId2"/>
+    <sheet name="UserManagementPage" sheetId="3" r:id="rId3"/>
+    <sheet name="ResetPage" sheetId="4" r:id="rId4"/>
+    <sheet name="AddUserPage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +29,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,12 +340,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1A0474-F563-42A9-9E4C-405650A55091}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A956029-A74C-4B5B-8D8F-C86544B038EF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6E2129-FC98-4509-9DE2-E0E01D34B244}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CCD09B-0803-41F6-934B-D128201D4259}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shifa\IdeaProjects\qalegend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68402434-2657-4603-AEB3-AFDAB988A48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0548DDF2-AB30-49AD-A8D5-D5F802CC5204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,81 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>Login - Demo POS</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Home - QAlegend</t>
+  </si>
+  <si>
+    <t>Reset Password - Demo POS</t>
+  </si>
+  <si>
+    <t>8085@gmail.com</t>
+  </si>
+  <si>
+    <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>ResetPageTitle</t>
+  </si>
+  <si>
+    <t>Homepagetitle</t>
+  </si>
+  <si>
+    <t>adminn</t>
+  </si>
+  <si>
+    <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>Adduserpage Title</t>
+  </si>
+  <si>
+    <t>admin KL</t>
+  </si>
+  <si>
+    <t>Users - Qalegend</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFDD4B39"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,13 +122,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -341,6 +413,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="56.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>123456</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1">
+        <v>123</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1A0474-F563-42A9-9E4C-405650A55091}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="50.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A956029-A74C-4B5B-8D8F-C86544B038EF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -351,50 +501,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1A0474-F563-42A9-9E4C-405650A55091}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6E2129-FC98-4509-9DE2-E0E01D34B244}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="48.44140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="56.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{BC9E9808-10C5-4D08-888C-0D9BBBAB380B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A956029-A74C-4B5B-8D8F-C86544B038EF}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CCD09B-0803-41F6-934B-D128201D4259}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6E2129-FC98-4509-9DE2-E0E01D34B244}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CCD09B-0803-41F6-934B-D128201D4259}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shifa\IdeaProjects\qalegend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0548DDF2-AB30-49AD-A8D5-D5F802CC5204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B3A9BE-0ACE-4341-868B-598046EDEF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3132" yWindow="1968" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -67,7 +67,28 @@
     <t>admin KL</t>
   </si>
   <si>
-    <t>Users - Qalegend</t>
+    <t>Add user - QAlegend</t>
+  </si>
+  <si>
+    <t>Shifana</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>shifana123@gmail.com</t>
+  </si>
+  <si>
+    <t>Shifana1234567</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents</t>
   </si>
 </sst>
 </file>
@@ -416,13 +437,14 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5546875" customWidth="1"/>
     <col min="6" max="6" width="56.21875" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -491,12 +513,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A956029-A74C-4B5B-8D8F-C86544B038EF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -541,7 +580,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CCD09B-0803-41F6-934B-D128201D4259}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -551,14 +590,34 @@
   <cols>
     <col min="1" max="1" width="23.77734375" customWidth="1"/>
     <col min="2" max="2" width="63.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shifa\IdeaProjects\qalegend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B3A9BE-0ACE-4341-868B-598046EDEF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F8BA61-F584-41EA-9B31-D1A6F5F8C0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3132" yWindow="1968" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Sales Commission Agents</t>
+  </si>
+  <si>
+    <t>User Management</t>
   </si>
 </sst>
 </file>
@@ -513,25 +516,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A956029-A74C-4B5B-8D8F-C86544B038EF}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -582,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CCD09B-0803-41F6-934B-D128201D4259}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
